--- a/utilz/tests/res/getTableData.xlsx
+++ b/utilz/tests/res/getTableData.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\miscs\utilz\tests\res\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gettabledata" sheetId="1" r:id="rId1"/>
+    <sheet name="borderdect" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -77,8 +73,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,13 +99,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -171,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,14 +468,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -398,19 +483,19 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5">
         <v>2</v>
       </c>
@@ -447,7 +532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>3</v>
       </c>
@@ -464,7 +549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
@@ -484,27 +569,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -521,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12">
         <v>2</v>
       </c>
@@ -538,7 +623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13">
         <v>3</v>
       </c>
@@ -555,7 +640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>3</v>
       </c>
@@ -575,26 +660,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -610,9 +695,9 @@
       <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>2</v>
       </c>
@@ -629,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>3</v>
       </c>
@@ -646,7 +731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>4</v>
       </c>
@@ -666,38 +751,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -713,9 +798,9 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2</v>
       </c>
@@ -732,7 +817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>3</v>
       </c>
@@ -749,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>4</v>
       </c>
@@ -771,18 +856,145 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B2:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="8"/>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>